--- a/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
+++ b/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\KYOTO-W-BOS\YAML-CREATION\VRF-CRAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KYOTO-W-BOS\YAML-CREATION\VRF-CRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">assets!$A$1:$V$995</definedName>
     <definedName name="Z_8F6BD52A_E505_4548_B6D8_1C41231C888E_.wvu.FilterData" localSheetId="1">assets!$A$1:$V$995</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="875">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2654,12 +2654,15 @@
   </si>
   <si>
     <t>percent_relative_humidity: percent_relative_humidity</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -2672,7 +2675,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2684,7 +2687,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2706,6 +2709,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3604,7 +3608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -3705,7 +3709,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>489</v>
+        <v>874</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>507</v>

--- a/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
+++ b/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\VRF-CRAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bos-tools\KYOTO-W-BOS\YAML-CREATION\VRF-CRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547E83E-3FA7-4AA8-B856-8F7A7C5BE7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33743632-37D5-4757-84DA-6227F375F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="896">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2538,6 +2538,189 @@
   </si>
   <si>
     <t>return_air_relative_humidity_sensor_23</t>
+  </si>
+  <si>
+    <t>fcu_32_control_mode</t>
+  </si>
+  <si>
+    <t>2=COOLING 3=DEHUMIDIFY 4=FAN 5= AUTO</t>
+  </si>
+  <si>
+    <t>fcu_03_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_04_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_05_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_06_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_07_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_08_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_09_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_10_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_11_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_12_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_13_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_14_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_15_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_16_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_17_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_18_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_19_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_20_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_21_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_22_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_23_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_24_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_25_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_26_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_27_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_28_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_29_control_mode</t>
+  </si>
+  <si>
+    <t>fcu_30_control_mode</t>
+  </si>
+  <si>
+    <t>control_mode_03</t>
+  </si>
+  <si>
+    <t>control_mode_04</t>
+  </si>
+  <si>
+    <t>control_mode_05</t>
+  </si>
+  <si>
+    <t>control_mode_06</t>
+  </si>
+  <si>
+    <t>control_mode_07</t>
+  </si>
+  <si>
+    <t>control_mode_08</t>
+  </si>
+  <si>
+    <t>control_mode_09</t>
+  </si>
+  <si>
+    <t>control_mode_10</t>
+  </si>
+  <si>
+    <t>control_mode_11</t>
+  </si>
+  <si>
+    <t>control_mode_12</t>
+  </si>
+  <si>
+    <t>control_mode_13</t>
+  </si>
+  <si>
+    <t>control_mode_14</t>
+  </si>
+  <si>
+    <t>control_mode_15</t>
+  </si>
+  <si>
+    <t>control_mode_16</t>
+  </si>
+  <si>
+    <t>control_mode_17</t>
+  </si>
+  <si>
+    <t>control_mode_18</t>
+  </si>
+  <si>
+    <t>control_mode_19</t>
+  </si>
+  <si>
+    <t>control_mode_20</t>
+  </si>
+  <si>
+    <t>fcu_31_control_mode</t>
+  </si>
+  <si>
+    <t>control_mode_21</t>
+  </si>
+  <si>
+    <t>control_mode_22</t>
+  </si>
+  <si>
+    <t>control_mode_23</t>
+  </si>
+  <si>
+    <t>control_mode_24</t>
+  </si>
+  <si>
+    <t>control_mode_25</t>
+  </si>
+  <si>
+    <t>control_mode_26</t>
+  </si>
+  <si>
+    <t>control_mode_27</t>
+  </si>
+  <si>
+    <t>control_mode_28</t>
+  </si>
+  <si>
+    <t>control_mode_29</t>
+  </si>
+  <si>
+    <t>control_mode_30</t>
+  </si>
+  <si>
+    <t>control_mode_31</t>
+  </si>
+  <si>
+    <t>control_mode_32</t>
   </si>
 </sst>
 </file>
@@ -3485,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G841"/>
+  <dimension ref="A1:G839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3497,7 +3680,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
@@ -10703,194 +10886,550 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="6"/>
-      <c r="B412" s="8"/>
-      <c r="E412" s="8"/>
+      <c r="A412" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>865</v>
+      </c>
       <c r="F412" s="6"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="6"/>
-      <c r="B413" s="8"/>
-      <c r="E413" s="8"/>
+      <c r="A413" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E413" s="7" t="s">
+        <v>866</v>
+      </c>
       <c r="F413" s="6"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="6"/>
-      <c r="B414" s="8"/>
-      <c r="E414" s="8"/>
+      <c r="A414" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E414" s="7" t="s">
+        <v>867</v>
+      </c>
       <c r="F414" s="6"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="6"/>
-      <c r="B415" s="8"/>
-      <c r="E415" s="8"/>
+      <c r="A415" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E415" s="7" t="s">
+        <v>868</v>
+      </c>
       <c r="F415" s="6"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="6"/>
-      <c r="B416" s="8"/>
-      <c r="E416" s="8"/>
-      <c r="F416" s="6"/>
+      <c r="A416" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E416" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F416" s="7"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="6"/>
-      <c r="B417" s="8"/>
-      <c r="E417" s="8"/>
+      <c r="A417" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E417" s="7" t="s">
+        <v>870</v>
+      </c>
       <c r="F417" s="6"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="6"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8"/>
-      <c r="E418" s="8"/>
-      <c r="F418" s="7"/>
+      <c r="A418" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E418" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F418" s="6"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="6"/>
-      <c r="B419" s="8"/>
-      <c r="E419" s="8"/>
+      <c r="A419" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E419" s="7" t="s">
+        <v>872</v>
+      </c>
       <c r="F419" s="6"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="6"/>
-      <c r="B420" s="8"/>
-      <c r="E420" s="8"/>
+      <c r="A420" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E420" s="7" t="s">
+        <v>873</v>
+      </c>
       <c r="F420" s="6"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="6"/>
-      <c r="B421" s="8"/>
-      <c r="E421" s="8"/>
+      <c r="A421" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E421" s="7" t="s">
+        <v>874</v>
+      </c>
       <c r="F421" s="6"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="6"/>
-      <c r="B422" s="8"/>
-      <c r="E422" s="8"/>
+      <c r="A422" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="F422" s="6"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="6"/>
-      <c r="B423" s="8"/>
-      <c r="E423" s="8"/>
+      <c r="A423" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E423" s="7" t="s">
+        <v>876</v>
+      </c>
       <c r="F423" s="6"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="6"/>
-      <c r="B424" s="8"/>
-      <c r="E424" s="8"/>
-      <c r="F424" s="6"/>
+      <c r="A424" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E424" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="F424" s="7"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="6"/>
-      <c r="B425" s="8"/>
-      <c r="E425" s="8"/>
+      <c r="A425" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>878</v>
+      </c>
       <c r="F425" s="6"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="6"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="E426" s="8"/>
-      <c r="F426" s="7"/>
+      <c r="A426" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C426" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="F426" s="6"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="6"/>
-      <c r="B427" s="8"/>
-      <c r="E427" s="8"/>
+      <c r="A427" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E427" s="7" t="s">
+        <v>880</v>
+      </c>
       <c r="F427" s="6"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="6"/>
-      <c r="B428" s="8"/>
-      <c r="E428" s="8"/>
+      <c r="A428" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E428" s="7" t="s">
+        <v>881</v>
+      </c>
       <c r="F428" s="6"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="6"/>
-      <c r="B429" s="8"/>
-      <c r="E429" s="8"/>
+      <c r="A429" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E429" s="7" t="s">
+        <v>882</v>
+      </c>
       <c r="F429" s="6"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="6"/>
-      <c r="B430" s="8"/>
-      <c r="E430" s="8"/>
+      <c r="A430" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="C430" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E430" s="7" t="s">
+        <v>884</v>
+      </c>
       <c r="F430" s="6"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="6"/>
-      <c r="B431" s="8"/>
-      <c r="E431" s="8"/>
+      <c r="A431" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E431" s="7" t="s">
+        <v>885</v>
+      </c>
       <c r="F431" s="6"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="6"/>
-      <c r="B432" s="8"/>
-      <c r="E432" s="8"/>
-      <c r="F432" s="6"/>
+      <c r="A432" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C432" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="F432" s="7"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433" s="6"/>
-      <c r="B433" s="8"/>
-      <c r="E433" s="8"/>
+      <c r="A433" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E433" s="7" t="s">
+        <v>887</v>
+      </c>
       <c r="F433" s="6"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434" s="6"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="8"/>
-      <c r="E434" s="8"/>
-      <c r="F434" s="7"/>
+      <c r="A434" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F434" s="6"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="6"/>
-      <c r="B435" s="8"/>
-      <c r="E435" s="8"/>
+      <c r="A435" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C435" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E435" s="7" t="s">
+        <v>889</v>
+      </c>
       <c r="F435" s="6"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="6"/>
-      <c r="B436" s="8"/>
-      <c r="E436" s="8"/>
+      <c r="A436" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E436" s="7" t="s">
+        <v>890</v>
+      </c>
       <c r="F436" s="6"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437" s="6"/>
-      <c r="B437" s="8"/>
-      <c r="E437" s="8"/>
+      <c r="A437" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E437" s="7" t="s">
+        <v>891</v>
+      </c>
       <c r="F437" s="6"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438" s="6"/>
-      <c r="B438" s="8"/>
-      <c r="E438" s="8"/>
+      <c r="A438" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="C438" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E438" s="7" t="s">
+        <v>892</v>
+      </c>
       <c r="F438" s="6"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A439" s="6"/>
-      <c r="B439" s="8"/>
-      <c r="E439" s="8"/>
+      <c r="A439" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E439" s="7" t="s">
+        <v>893</v>
+      </c>
       <c r="F439" s="6"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A440" s="6"/>
-      <c r="B440" s="8"/>
-      <c r="E440" s="8"/>
-      <c r="F440" s="6"/>
+      <c r="A440" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="F440" s="7"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A441" s="6"/>
-      <c r="B441" s="8"/>
-      <c r="E441" s="8"/>
+      <c r="A441" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>895</v>
+      </c>
       <c r="F441" s="6"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="6"/>
       <c r="B442" s="8"/>
-      <c r="C442" s="8"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="7"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="6"/>
@@ -10925,8 +11464,9 @@
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="6"/>
       <c r="B448" s="8"/>
+      <c r="C448" s="8"/>
       <c r="E448" s="8"/>
-      <c r="F448" s="6"/>
+      <c r="F448" s="7"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="6"/>
@@ -10937,9 +11477,8 @@
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="6"/>
       <c r="B450" s="8"/>
-      <c r="C450" s="8"/>
       <c r="E450" s="8"/>
-      <c r="F450" s="7"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="6"/>
@@ -10974,8 +11513,9 @@
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="6"/>
       <c r="B456" s="8"/>
+      <c r="C456" s="8"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="6"/>
+      <c r="F456" s="7"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="6"/>
@@ -10986,9 +11526,8 @@
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="6"/>
       <c r="B458" s="8"/>
-      <c r="C458" s="8"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="7"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="6"/>
@@ -11023,8 +11562,9 @@
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="6"/>
       <c r="B464" s="8"/>
+      <c r="C464" s="8"/>
       <c r="E464" s="8"/>
-      <c r="F464" s="6"/>
+      <c r="F464" s="7"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="6"/>
@@ -11035,9 +11575,8 @@
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="B466" s="8"/>
-      <c r="C466" s="8"/>
       <c r="E466" s="8"/>
-      <c r="F466" s="7"/>
+      <c r="F466" s="6"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="6"/>
@@ -11072,8 +11611,9 @@
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="6"/>
       <c r="B472" s="8"/>
+      <c r="C472" s="8"/>
       <c r="E472" s="8"/>
-      <c r="F472" s="6"/>
+      <c r="F472" s="7"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="6"/>
@@ -11084,9 +11624,8 @@
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="6"/>
       <c r="B474" s="8"/>
-      <c r="C474" s="8"/>
       <c r="E474" s="8"/>
-      <c r="F474" s="7"/>
+      <c r="F474" s="6"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="6"/>
@@ -11121,8 +11660,9 @@
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="6"/>
       <c r="B480" s="8"/>
+      <c r="C480" s="8"/>
       <c r="E480" s="8"/>
-      <c r="F480" s="6"/>
+      <c r="F480" s="7"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="6"/>
@@ -11133,9 +11673,8 @@
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="6"/>
       <c r="B482" s="8"/>
-      <c r="C482" s="8"/>
       <c r="E482" s="8"/>
-      <c r="F482" s="7"/>
+      <c r="F482" s="6"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="6"/>
@@ -11170,8 +11709,9 @@
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>
       <c r="B488" s="8"/>
+      <c r="C488" s="8"/>
       <c r="E488" s="8"/>
-      <c r="F488" s="6"/>
+      <c r="F488" s="7"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>
@@ -11182,9 +11722,8 @@
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>
       <c r="B490" s="8"/>
-      <c r="C490" s="8"/>
       <c r="E490" s="8"/>
-      <c r="F490" s="7"/>
+      <c r="F490" s="6"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>
@@ -11219,8 +11758,9 @@
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
       <c r="B496" s="8"/>
+      <c r="C496" s="8"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="6"/>
+      <c r="F496" s="7"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
@@ -11231,9 +11771,8 @@
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="6"/>
       <c r="B498" s="8"/>
-      <c r="C498" s="8"/>
       <c r="E498" s="8"/>
-      <c r="F498" s="7"/>
+      <c r="F498" s="6"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="6"/>
@@ -11268,8 +11807,9 @@
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="6"/>
       <c r="B504" s="8"/>
+      <c r="C504" s="8"/>
       <c r="E504" s="8"/>
-      <c r="F504" s="6"/>
+      <c r="F504" s="7"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>
@@ -11280,9 +11820,8 @@
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>
       <c r="B506" s="8"/>
-      <c r="C506" s="8"/>
       <c r="E506" s="8"/>
-      <c r="F506" s="7"/>
+      <c r="F506" s="6"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>
@@ -11317,8 +11856,9 @@
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="6"/>
       <c r="B512" s="8"/>
+      <c r="C512" s="8"/>
       <c r="E512" s="8"/>
-      <c r="F512" s="6"/>
+      <c r="F512" s="7"/>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="6"/>
@@ -11329,9 +11869,8 @@
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="6"/>
       <c r="B514" s="8"/>
-      <c r="C514" s="8"/>
       <c r="E514" s="8"/>
-      <c r="F514" s="7"/>
+      <c r="F514" s="6"/>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
@@ -11366,8 +11905,9 @@
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>
       <c r="B520" s="8"/>
+      <c r="C520" s="8"/>
       <c r="E520" s="8"/>
-      <c r="F520" s="6"/>
+      <c r="F520" s="7"/>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>
@@ -11378,9 +11918,8 @@
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
       <c r="B522" s="8"/>
-      <c r="C522" s="8"/>
       <c r="E522" s="8"/>
-      <c r="F522" s="7"/>
+      <c r="F522" s="6"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="6"/>
@@ -11390,14 +11929,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="6"/>
-      <c r="B524" s="8"/>
-      <c r="E524" s="8"/>
       <c r="F524" s="6"/>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
-      <c r="B525" s="8"/>
-      <c r="E525" s="8"/>
       <c r="F525" s="6"/>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -11410,7 +11945,8 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
-      <c r="F528" s="6"/>
+      <c r="C528" s="8"/>
+      <c r="F528" s="7"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
@@ -11418,8 +11954,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
-      <c r="C530" s="8"/>
-      <c r="F530" s="7"/>
+      <c r="F530" s="6"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
@@ -11443,7 +11978,8 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
-      <c r="F536" s="6"/>
+      <c r="C536" s="8"/>
+      <c r="F536" s="7"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
@@ -11451,8 +11987,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
-      <c r="C538" s="8"/>
-      <c r="F538" s="7"/>
+      <c r="F538" s="6"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
@@ -11476,7 +12011,8 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
-      <c r="F544" s="6"/>
+      <c r="C544" s="8"/>
+      <c r="F544" s="7"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
@@ -11484,8 +12020,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
-      <c r="C546" s="8"/>
-      <c r="F546" s="7"/>
+      <c r="F546" s="6"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
@@ -11509,7 +12044,8 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
-      <c r="F552" s="6"/>
+      <c r="C552" s="8"/>
+      <c r="F552" s="7"/>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
@@ -11517,8 +12053,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
-      <c r="C554" s="8"/>
-      <c r="F554" s="7"/>
+      <c r="F554" s="6"/>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
@@ -11542,7 +12077,8 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
-      <c r="F560" s="6"/>
+      <c r="C560" s="8"/>
+      <c r="F560" s="7"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
@@ -11550,8 +12086,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
-      <c r="C562" s="8"/>
-      <c r="F562" s="7"/>
+      <c r="F562" s="6"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
@@ -11575,7 +12110,8 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
-      <c r="F568" s="6"/>
+      <c r="C568" s="8"/>
+      <c r="F568" s="7"/>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
@@ -11583,8 +12119,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
-      <c r="C570" s="8"/>
-      <c r="F570" s="7"/>
+      <c r="F570" s="6"/>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
@@ -11608,7 +12143,8 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
-      <c r="F576" s="6"/>
+      <c r="C576" s="8"/>
+      <c r="F576" s="7"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
@@ -11616,8 +12152,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
-      <c r="C578" s="8"/>
-      <c r="F578" s="7"/>
+      <c r="F578" s="6"/>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
@@ -11641,7 +12176,8 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
-      <c r="F584" s="6"/>
+      <c r="C584" s="8"/>
+      <c r="F584" s="7"/>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="6"/>
@@ -11649,8 +12185,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
-      <c r="C586" s="8"/>
-      <c r="F586" s="7"/>
+      <c r="F586" s="6"/>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
@@ -11674,7 +12209,8 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="6"/>
-      <c r="F592" s="6"/>
+      <c r="C592" s="8"/>
+      <c r="F592" s="7"/>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
@@ -11682,8 +12218,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
-      <c r="C594" s="8"/>
-      <c r="F594" s="7"/>
+      <c r="F594" s="6"/>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
@@ -11707,7 +12242,8 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="6"/>
-      <c r="F600" s="6"/>
+      <c r="C600" s="8"/>
+      <c r="F600" s="7"/>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
@@ -11715,8 +12251,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="6"/>
-      <c r="C602" s="8"/>
-      <c r="F602" s="7"/>
+      <c r="F602" s="6"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="6"/>
@@ -11740,7 +12275,8 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="6"/>
-      <c r="F608" s="6"/>
+      <c r="C608" s="8"/>
+      <c r="F608" s="7"/>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
@@ -11748,8 +12284,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="6"/>
-      <c r="C610" s="8"/>
-      <c r="F610" s="7"/>
+      <c r="F610" s="6"/>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
@@ -11773,7 +12308,8 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="6"/>
-      <c r="F616" s="6"/>
+      <c r="C616" s="8"/>
+      <c r="F616" s="7"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="6"/>
@@ -11781,8 +12317,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
-      <c r="C618" s="8"/>
-      <c r="F618" s="7"/>
+      <c r="F618" s="6"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
@@ -11806,7 +12341,8 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="6"/>
-      <c r="F624" s="6"/>
+      <c r="C624" s="8"/>
+      <c r="F624" s="7"/>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="6"/>
@@ -11814,8 +12350,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="6"/>
-      <c r="C626" s="8"/>
-      <c r="F626" s="7"/>
+      <c r="F626" s="6"/>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="6"/>
@@ -11839,7 +12374,8 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="6"/>
-      <c r="F632" s="6"/>
+      <c r="C632" s="8"/>
+      <c r="F632" s="7"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="6"/>
@@ -11847,8 +12383,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="6"/>
-      <c r="C634" s="8"/>
-      <c r="F634" s="7"/>
+      <c r="F634" s="6"/>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="6"/>
@@ -11872,7 +12407,8 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="6"/>
-      <c r="F640" s="6"/>
+      <c r="C640" s="8"/>
+      <c r="F640" s="7"/>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="6"/>
@@ -11880,8 +12416,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="6"/>
-      <c r="C642" s="8"/>
-      <c r="F642" s="7"/>
+      <c r="F642" s="6"/>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="6"/>
@@ -11905,7 +12440,8 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="6"/>
-      <c r="F648" s="6"/>
+      <c r="C648" s="8"/>
+      <c r="F648" s="7"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="6"/>
@@ -11913,8 +12449,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="6"/>
-      <c r="C650" s="8"/>
-      <c r="F650" s="7"/>
+      <c r="F650" s="6"/>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="6"/>
@@ -11938,7 +12473,8 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="6"/>
-      <c r="F656" s="6"/>
+      <c r="C656" s="8"/>
+      <c r="F656" s="7"/>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="6"/>
@@ -11946,8 +12482,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="6"/>
-      <c r="C658" s="8"/>
-      <c r="F658" s="7"/>
+      <c r="F658" s="6"/>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="6"/>
@@ -11971,7 +12506,8 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" s="6"/>
-      <c r="F664" s="6"/>
+      <c r="C664" s="8"/>
+      <c r="F664" s="7"/>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" s="6"/>
@@ -11979,8 +12515,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" s="6"/>
-      <c r="C666" s="8"/>
-      <c r="F666" s="7"/>
+      <c r="F666" s="6"/>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" s="6"/>
@@ -12004,7 +12539,8 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" s="6"/>
-      <c r="F672" s="6"/>
+      <c r="C672" s="8"/>
+      <c r="F672" s="7"/>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" s="6"/>
@@ -12012,8 +12548,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" s="6"/>
-      <c r="C674" s="8"/>
-      <c r="F674" s="7"/>
+      <c r="F674" s="6"/>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" s="6"/>
@@ -12037,7 +12572,8 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" s="6"/>
-      <c r="F680" s="6"/>
+      <c r="C680" s="8"/>
+      <c r="F680" s="7"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" s="6"/>
@@ -12045,8 +12581,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" s="6"/>
-      <c r="C682" s="8"/>
-      <c r="F682" s="7"/>
+      <c r="F682" s="6"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" s="6"/>
@@ -12070,7 +12605,8 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" s="6"/>
-      <c r="F688" s="6"/>
+      <c r="C688" s="8"/>
+      <c r="F688" s="7"/>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" s="6"/>
@@ -12078,8 +12614,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" s="6"/>
-      <c r="C690" s="8"/>
-      <c r="F690" s="7"/>
+      <c r="F690" s="6"/>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" s="6"/>
@@ -12103,7 +12638,8 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696" s="6"/>
-      <c r="F696" s="6"/>
+      <c r="C696" s="8"/>
+      <c r="F696" s="7"/>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697" s="6"/>
@@ -12111,8 +12647,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698" s="6"/>
-      <c r="C698" s="8"/>
-      <c r="F698" s="7"/>
+      <c r="F698" s="6"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699" s="6"/>
@@ -12136,7 +12671,8 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704" s="6"/>
-      <c r="F704" s="6"/>
+      <c r="C704" s="8"/>
+      <c r="F704" s="7"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705" s="6"/>
@@ -12144,8 +12680,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706" s="6"/>
-      <c r="C706" s="8"/>
-      <c r="F706" s="7"/>
+      <c r="F706" s="6"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707" s="6"/>
@@ -12169,7 +12704,8 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712" s="6"/>
-      <c r="F712" s="6"/>
+      <c r="C712" s="8"/>
+      <c r="F712" s="7"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713" s="6"/>
@@ -12177,8 +12713,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714" s="6"/>
-      <c r="C714" s="8"/>
-      <c r="F714" s="7"/>
+      <c r="F714" s="6"/>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715" s="6"/>
@@ -12202,7 +12737,8 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A720" s="6"/>
-      <c r="F720" s="6"/>
+      <c r="C720" s="8"/>
+      <c r="F720" s="7"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721" s="6"/>
@@ -12210,8 +12746,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722" s="6"/>
-      <c r="C722" s="8"/>
-      <c r="F722" s="7"/>
+      <c r="F722" s="6"/>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723" s="6"/>
@@ -12235,7 +12770,8 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728" s="6"/>
-      <c r="F728" s="6"/>
+      <c r="C728" s="8"/>
+      <c r="F728" s="7"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729" s="6"/>
@@ -12243,8 +12779,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730" s="6"/>
-      <c r="C730" s="8"/>
-      <c r="F730" s="7"/>
+      <c r="F730" s="6"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731" s="6"/>
@@ -12268,7 +12803,8 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736" s="6"/>
-      <c r="F736" s="6"/>
+      <c r="C736" s="8"/>
+      <c r="F736" s="7"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737" s="6"/>
@@ -12276,8 +12812,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" s="6"/>
-      <c r="C738" s="8"/>
-      <c r="F738" s="7"/>
+      <c r="F738" s="6"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" s="6"/>
@@ -12301,7 +12836,8 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" s="6"/>
-      <c r="F744" s="6"/>
+      <c r="C744" s="8"/>
+      <c r="F744" s="7"/>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" s="6"/>
@@ -12309,8 +12845,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" s="6"/>
-      <c r="C746" s="8"/>
-      <c r="F746" s="7"/>
+      <c r="F746" s="6"/>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" s="6"/>
@@ -12334,7 +12869,8 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" s="6"/>
-      <c r="F752" s="6"/>
+      <c r="C752" s="8"/>
+      <c r="F752" s="7"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" s="6"/>
@@ -12342,8 +12878,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" s="6"/>
-      <c r="C754" s="8"/>
-      <c r="F754" s="7"/>
+      <c r="F754" s="6"/>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" s="6"/>
@@ -12367,7 +12902,8 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" s="6"/>
-      <c r="F760" s="6"/>
+      <c r="C760" s="8"/>
+      <c r="F760" s="7"/>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="6"/>
@@ -12375,8 +12911,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" s="6"/>
-      <c r="C762" s="8"/>
-      <c r="F762" s="7"/>
+      <c r="F762" s="6"/>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" s="6"/>
@@ -12400,7 +12935,8 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" s="6"/>
-      <c r="F768" s="6"/>
+      <c r="C768" s="8"/>
+      <c r="F768" s="7"/>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="6"/>
@@ -12408,8 +12944,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" s="6"/>
-      <c r="C770" s="8"/>
-      <c r="F770" s="7"/>
+      <c r="F770" s="6"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" s="6"/>
@@ -12433,7 +12968,8 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" s="6"/>
-      <c r="F776" s="6"/>
+      <c r="C776" s="8"/>
+      <c r="F776" s="7"/>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" s="6"/>
@@ -12441,8 +12977,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="6"/>
-      <c r="C778" s="8"/>
-      <c r="F778" s="7"/>
+      <c r="F778" s="6"/>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" s="6"/>
@@ -12466,7 +13001,8 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="6"/>
-      <c r="F784" s="6"/>
+      <c r="C784" s="8"/>
+      <c r="F784" s="7"/>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" s="6"/>
@@ -12474,8 +13010,7 @@
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" s="6"/>
-      <c r="C786" s="8"/>
-      <c r="F786" s="7"/>
+      <c r="F786" s="6"/>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" s="6"/>
@@ -12499,7 +13034,8 @@
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" s="6"/>
-      <c r="F792" s="6"/>
+      <c r="C792" s="8"/>
+      <c r="F792" s="7"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" s="6"/>
@@ -12507,8 +13043,7 @@
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" s="6"/>
-      <c r="C794" s="8"/>
-      <c r="F794" s="7"/>
+      <c r="F794" s="6"/>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="6"/>
@@ -12532,7 +13067,8 @@
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" s="6"/>
-      <c r="F800" s="6"/>
+      <c r="C800" s="8"/>
+      <c r="F800" s="7"/>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" s="6"/>
@@ -12540,8 +13076,7 @@
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" s="6"/>
-      <c r="C802" s="8"/>
-      <c r="F802" s="7"/>
+      <c r="F802" s="6"/>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" s="6"/>
@@ -12565,7 +13100,8 @@
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" s="6"/>
-      <c r="F808" s="6"/>
+      <c r="C808" s="8"/>
+      <c r="F808" s="7"/>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" s="6"/>
@@ -12573,8 +13109,7 @@
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="6"/>
-      <c r="C810" s="8"/>
-      <c r="F810" s="7"/>
+      <c r="F810" s="6"/>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" s="6"/>
@@ -12598,7 +13133,8 @@
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" s="6"/>
-      <c r="F816" s="6"/>
+      <c r="C816" s="8"/>
+      <c r="F816" s="7"/>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="6"/>
@@ -12606,8 +13142,7 @@
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" s="6"/>
-      <c r="C818" s="8"/>
-      <c r="F818" s="7"/>
+      <c r="F818" s="6"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" s="6"/>
@@ -12631,7 +13166,8 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" s="6"/>
-      <c r="F824" s="6"/>
+      <c r="C824" s="8"/>
+      <c r="F824" s="7"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" s="6"/>
@@ -12639,8 +13175,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" s="6"/>
-      <c r="C826" s="8"/>
-      <c r="F826" s="7"/>
+      <c r="F826" s="6"/>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" s="6"/>
@@ -12664,7 +13199,8 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" s="6"/>
-      <c r="F832" s="6"/>
+      <c r="C832" s="8"/>
+      <c r="F832" s="7"/>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" s="6"/>
@@ -12672,8 +13208,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="6"/>
-      <c r="C834" s="8"/>
-      <c r="F834" s="7"/>
+      <c r="F834" s="6"/>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" s="6"/>
@@ -12695,15 +13230,8 @@
       <c r="A839" s="6"/>
       <c r="F839" s="6"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A840" s="6"/>
-      <c r="F840" s="6"/>
-    </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A841" s="6"/>
-      <c r="F841" s="6"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
+++ b/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bos-tools\KYOTO-W-BOS\YAML-CREATION\VRF-CRAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\VRF-CRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33743632-37D5-4757-84DA-6227F375F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB9341-A811-4B46-BC76-46B4B2F7A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -2543,9 +2543,6 @@
     <t>fcu_32_control_mode</t>
   </si>
   <si>
-    <t>2=COOLING 3=DEHUMIDIFY 4=FAN 5= AUTO</t>
-  </si>
-  <si>
     <t>fcu_03_control_mode</t>
   </si>
   <si>
@@ -2721,6 +2718,9 @@
   </si>
   <si>
     <t>control_mode_32</t>
+  </si>
+  <si>
+    <t>true=COOLING false=DEHUMIDIFY</t>
   </si>
 </sst>
 </file>
@@ -3671,8 +3671,8 @@
   <dimension ref="A1:G839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3680,7 +3680,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" customWidth="1"/>
     <col min="6" max="6" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
@@ -10890,16 +10890,16 @@
         <v>289</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F412" s="6"/>
     </row>
@@ -10908,16 +10908,16 @@
         <v>289</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F413" s="6"/>
     </row>
@@ -10926,16 +10926,16 @@
         <v>289</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E414" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F414" s="6"/>
     </row>
@@ -10944,16 +10944,16 @@
         <v>289</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F415" s="6"/>
     </row>
@@ -10962,16 +10962,16 @@
         <v>289</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E416" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F416" s="7"/>
     </row>
@@ -10980,16 +10980,16 @@
         <v>289</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F417" s="6"/>
     </row>
@@ -10998,16 +10998,16 @@
         <v>289</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E418" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F418" s="6"/>
     </row>
@@ -11016,16 +11016,16 @@
         <v>289</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F419" s="6"/>
     </row>
@@ -11034,16 +11034,16 @@
         <v>289</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E420" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F420" s="6"/>
     </row>
@@ -11052,16 +11052,16 @@
         <v>289</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F421" s="6"/>
     </row>
@@ -11070,16 +11070,16 @@
         <v>289</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F422" s="6"/>
     </row>
@@ -11088,16 +11088,16 @@
         <v>289</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F423" s="6"/>
     </row>
@@ -11106,16 +11106,16 @@
         <v>289</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F424" s="7"/>
     </row>
@@ -11124,16 +11124,16 @@
         <v>289</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F425" s="6"/>
     </row>
@@ -11142,16 +11142,16 @@
         <v>289</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F426" s="6"/>
     </row>
@@ -11160,16 +11160,16 @@
         <v>289</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F427" s="6"/>
     </row>
@@ -11178,16 +11178,16 @@
         <v>289</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F428" s="6"/>
     </row>
@@ -11196,16 +11196,16 @@
         <v>289</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F429" s="6"/>
     </row>
@@ -11214,16 +11214,16 @@
         <v>289</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F430" s="6"/>
     </row>
@@ -11232,16 +11232,16 @@
         <v>289</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E431" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F431" s="6"/>
     </row>
@@ -11250,16 +11250,16 @@
         <v>289</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F432" s="7"/>
     </row>
@@ -11268,16 +11268,16 @@
         <v>289</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F433" s="6"/>
     </row>
@@ -11286,16 +11286,16 @@
         <v>289</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F434" s="6"/>
     </row>
@@ -11304,16 +11304,16 @@
         <v>289</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E435" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F435" s="6"/>
     </row>
@@ -11322,16 +11322,16 @@
         <v>289</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F436" s="6"/>
     </row>
@@ -11340,16 +11340,16 @@
         <v>289</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E437" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F437" s="6"/>
     </row>
@@ -11358,16 +11358,16 @@
         <v>289</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E438" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F438" s="6"/>
     </row>
@@ -11376,16 +11376,16 @@
         <v>289</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E439" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F439" s="6"/>
     </row>
@@ -11394,16 +11394,16 @@
         <v>289</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F440" s="7"/>
     </row>
@@ -11418,10 +11418,10 @@
         <v>52</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>836</v>
+        <v>895</v>
       </c>
       <c r="E441" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F441" s="6"/>
     </row>

--- a/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
+++ b/YAML-CREATION/VRF-CRAC/vrf-crac.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\VRF-CRAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KYOTO-W-BOS\YAML-CREATION\VRF-CRAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DB9341-A811-4B46-BC76-46B4B2F7A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -2726,8 +2725,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3215,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -3223,7 +3222,7 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" customWidth="1"/>
@@ -3231,7 +3230,7 @@
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3333,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
@@ -3341,7 +3340,7 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -3365,7 +3364,7 @@
     <col min="22" max="22" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -3599,28 +3598,28 @@
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="O5" s="2"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="O7" s="2"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="6"/>
       <c r="E8" s="6"/>
       <c r="K8" s="6"/>
@@ -3628,7 +3627,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="6"/>
       <c r="E9" s="6"/>
       <c r="K9" s="6"/>
@@ -3636,7 +3635,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="6"/>
       <c r="E10" s="6"/>
       <c r="I10" s="9"/>
@@ -3646,8 +3645,8 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="11:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1"/>
+    <row r="18" spans="11:22">
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3660,22 +3659,22 @@
       <c r="V18" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V995" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:V995"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
@@ -3687,7 +3686,7 @@
     <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -3762,7 +3761,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -3780,7 +3779,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -3798,7 +3797,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -3816,7 +3815,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -3834,7 +3833,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -3937,7 +3936,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -3955,7 +3954,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -3973,7 +3972,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -3991,7 +3990,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -4009,7 +4008,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -4112,7 +4111,7 @@
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -4130,7 +4129,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -4148,7 +4147,7 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
@@ -4166,7 +4165,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -4184,7 +4183,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -4305,7 +4304,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
@@ -4323,7 +4322,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -4341,7 +4340,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -4359,7 +4358,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -4462,7 +4461,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -4480,7 +4479,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -4498,7 +4497,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -4516,7 +4515,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -4534,7 +4533,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -4637,7 +4636,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -4655,7 +4654,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -4673,7 +4672,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -4691,7 +4690,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>55</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>55</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>55</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>55</v>
       </c>
@@ -4812,7 +4811,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>55</v>
       </c>
@@ -4830,7 +4829,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>55</v>
       </c>
@@ -4848,7 +4847,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>55</v>
       </c>
@@ -4866,7 +4865,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
@@ -4884,7 +4883,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>55</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>55</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>55</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
@@ -4987,7 +4986,7 @@
       </c>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>55</v>
       </c>
@@ -5005,7 +5004,7 @@
       </c>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
@@ -5023,7 +5022,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>55</v>
       </c>
@@ -5041,7 +5040,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
@@ -5059,7 +5058,7 @@
       </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>55</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
@@ -5162,7 +5161,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
@@ -5180,7 +5179,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>55</v>
       </c>
@@ -5198,7 +5197,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
@@ -5216,7 +5215,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>55</v>
       </c>
@@ -5234,7 +5233,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>55</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>55</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>55</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>55</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>55</v>
       </c>
@@ -5337,7 +5336,7 @@
       </c>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>55</v>
       </c>
@@ -5355,7 +5354,7 @@
       </c>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>55</v>
       </c>
@@ -5373,7 +5372,7 @@
       </c>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>55</v>
       </c>
@@ -5391,7 +5390,7 @@
       </c>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>55</v>
       </c>
@@ -5409,7 +5408,7 @@
       </c>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>55</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>55</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>55</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>55</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -5512,7 +5511,7 @@
       </c>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -5530,7 +5529,7 @@
       </c>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -5548,7 +5547,7 @@
       </c>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -5566,7 +5565,7 @@
       </c>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>55</v>
       </c>
@@ -5584,7 +5583,7 @@
       </c>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>55</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>55</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>55</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>55</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>55</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -5687,7 +5686,7 @@
       </c>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>55</v>
       </c>
@@ -5705,7 +5704,7 @@
       </c>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>55</v>
       </c>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>55</v>
       </c>
@@ -5741,7 +5740,7 @@
       </c>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>55</v>
       </c>
@@ -5759,7 +5758,7 @@
       </c>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>55</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>55</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>55</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>55</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>55</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>55</v>
       </c>
@@ -5862,7 +5861,7 @@
       </c>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>55</v>
       </c>
@@ -5880,7 +5879,7 @@
       </c>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>55</v>
       </c>
@@ -5898,7 +5897,7 @@
       </c>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>55</v>
       </c>
@@ -5916,7 +5915,7 @@
       </c>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>55</v>
       </c>
@@ -5934,7 +5933,7 @@
       </c>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>55</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>55</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>188</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>188</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>188</v>
       </c>
@@ -6037,7 +6036,7 @@
       </c>
       <c r="F134" s="6"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>188</v>
       </c>
@@ -6055,7 +6054,7 @@
       </c>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>188</v>
       </c>
@@ -6073,7 +6072,7 @@
       </c>
       <c r="F136" s="6"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>188</v>
       </c>
@@ -6091,7 +6090,7 @@
       </c>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>188</v>
       </c>
@@ -6109,7 +6108,7 @@
       </c>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>188</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>188</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>188</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>188</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>188</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>188</v>
       </c>
@@ -6212,7 +6211,7 @@
       </c>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>188</v>
       </c>
@@ -6230,7 +6229,7 @@
       </c>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>188</v>
       </c>
@@ -6248,7 +6247,7 @@
       </c>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>188</v>
       </c>
@@ -6266,7 +6265,7 @@
       </c>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>188</v>
       </c>
@@ -6284,7 +6283,7 @@
       </c>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>188</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>188</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>188</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>188</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>188</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>188</v>
       </c>
@@ -6387,7 +6386,7 @@
       </c>
       <c r="F154" s="6"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>188</v>
       </c>
@@ -6405,7 +6404,7 @@
       </c>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>188</v>
       </c>
@@ -6423,7 +6422,7 @@
       </c>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>188</v>
       </c>
@@ -6441,7 +6440,7 @@
       </c>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>188</v>
       </c>
@@ -6459,7 +6458,7 @@
       </c>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>188</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
         <v>188</v>
       </c>
@@ -6493,7 +6492,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
         <v>188</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>188</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>188</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>188</v>
       </c>
@@ -6562,7 +6561,7 @@
       </c>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>188</v>
       </c>
@@ -6580,7 +6579,7 @@
       </c>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>188</v>
       </c>
@@ -6598,7 +6597,7 @@
       </c>
       <c r="F166" s="6"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>188</v>
       </c>
@@ -6616,7 +6615,7 @@
       </c>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>188</v>
       </c>
@@ -6634,7 +6633,7 @@
       </c>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>188</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>188</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>188</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>188</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>188</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>188</v>
       </c>
@@ -6737,7 +6736,7 @@
       </c>
       <c r="F174" s="6"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>188</v>
       </c>
@@ -6755,7 +6754,7 @@
       </c>
       <c r="F175" s="6"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>188</v>
       </c>
@@ -6773,7 +6772,7 @@
       </c>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>188</v>
       </c>
@@ -6791,7 +6790,7 @@
       </c>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>188</v>
       </c>
@@ -6809,7 +6808,7 @@
       </c>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>188</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>188</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>188</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>188</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>188</v>
       </c>
@@ -6912,7 +6911,7 @@
       </c>
       <c r="F184" s="6"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>188</v>
       </c>
@@ -6930,7 +6929,7 @@
       </c>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
@@ -6948,7 +6947,7 @@
       </c>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>188</v>
       </c>
@@ -6966,7 +6965,7 @@
       </c>
       <c r="F187" s="6"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
@@ -6984,7 +6983,7 @@
       </c>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>188</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>188</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>188</v>
       </c>
@@ -7087,7 +7086,7 @@
       </c>
       <c r="F194" s="6"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>188</v>
       </c>
@@ -7105,7 +7104,7 @@
       </c>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>188</v>
       </c>
@@ -7123,7 +7122,7 @@
       </c>
       <c r="F196" s="6"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>188</v>
       </c>
@@ -7141,7 +7140,7 @@
       </c>
       <c r="F197" s="6"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>188</v>
       </c>
@@ -7159,7 +7158,7 @@
       </c>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>188</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>188</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>188</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>188</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>188</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>188</v>
       </c>
@@ -7262,7 +7261,7 @@
       </c>
       <c r="F204" s="6"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>188</v>
       </c>
@@ -7280,7 +7279,7 @@
       </c>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>188</v>
       </c>
@@ -7298,7 +7297,7 @@
       </c>
       <c r="F206" s="6"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>188</v>
       </c>
@@ -7316,7 +7315,7 @@
       </c>
       <c r="F207" s="6"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>188</v>
       </c>
@@ -7334,7 +7333,7 @@
       </c>
       <c r="F208" s="6"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>188</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>188</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>188</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>188</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>188</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>188</v>
       </c>
@@ -7437,7 +7436,7 @@
       </c>
       <c r="F214" s="6"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>188</v>
       </c>
@@ -7455,7 +7454,7 @@
       </c>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>188</v>
       </c>
@@ -7473,7 +7472,7 @@
       </c>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>188</v>
       </c>
@@ -7491,7 +7490,7 @@
       </c>
       <c r="F217" s="6"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>188</v>
       </c>
@@ -7509,7 +7508,7 @@
       </c>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>188</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>188</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>188</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>188</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>188</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>188</v>
       </c>
@@ -7612,7 +7611,7 @@
       </c>
       <c r="F224" s="6"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>188</v>
       </c>
@@ -7630,7 +7629,7 @@
       </c>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>188</v>
       </c>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="F226" s="6"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>188</v>
       </c>
@@ -7666,7 +7665,7 @@
       </c>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>188</v>
       </c>
@@ -7684,7 +7683,7 @@
       </c>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>188</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>188</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>188</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>289</v>
       </c>
@@ -7753,7 +7752,7 @@
       </c>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>289</v>
       </c>
@@ -7771,7 +7770,7 @@
       </c>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>289</v>
       </c>
@@ -7789,7 +7788,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>289</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>289</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>289</v>
       </c>
@@ -7840,7 +7839,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>289</v>
       </c>
@@ -7858,7 +7857,7 @@
       </c>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>289</v>
       </c>
@@ -7876,7 +7875,7 @@
       </c>
       <c r="F239" s="6"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>289</v>
       </c>
@@ -7894,7 +7893,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>289</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>289</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>289</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>289</v>
       </c>
@@ -7963,7 +7962,7 @@
       </c>
       <c r="F244" s="6"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>289</v>
       </c>
@@ -7981,7 +7980,7 @@
       </c>
       <c r="F245" s="6"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>289</v>
       </c>
@@ -7999,7 +7998,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
         <v>289</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
         <v>289</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
         <v>289</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>289</v>
       </c>
@@ -8068,7 +8067,7 @@
       </c>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>289</v>
       </c>
@@ -8086,7 +8085,7 @@
       </c>
       <c r="F251" s="6"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>289</v>
       </c>
@@ -8104,7 +8103,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>289</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>289</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>289</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>289</v>
       </c>
@@ -8170,7 +8169,7 @@
       </c>
       <c r="F256" s="6"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>289</v>
       </c>
@@ -8188,7 +8187,7 @@
       </c>
       <c r="F257" s="6"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>289</v>
       </c>
@@ -8206,7 +8205,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>289</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>289</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>289</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>289</v>
       </c>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>289</v>
       </c>
@@ -8296,7 +8295,7 @@
       </c>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>289</v>
       </c>
@@ -8314,7 +8313,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>289</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>289</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>289</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>289</v>
       </c>
@@ -8383,7 +8382,7 @@
       </c>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>289</v>
       </c>
@@ -8401,7 +8400,7 @@
       </c>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>289</v>
       </c>
@@ -8419,7 +8418,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>289</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>289</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>289</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>289</v>
       </c>
@@ -8488,7 +8487,7 @@
       </c>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>289</v>
       </c>
@@ -8506,7 +8505,7 @@
       </c>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>289</v>
       </c>
@@ -8524,7 +8523,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>289</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>289</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>289</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>289</v>
       </c>
@@ -8593,7 +8592,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>289</v>
       </c>
@@ -8611,7 +8610,7 @@
       </c>
       <c r="F281" s="6"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>289</v>
       </c>
@@ -8629,7 +8628,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>289</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>289</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>289</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>289</v>
       </c>
@@ -8698,7 +8697,7 @@
       </c>
       <c r="F286" s="6"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
@@ -8716,7 +8715,7 @@
       </c>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>289</v>
       </c>
@@ -8734,7 +8733,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
         <v>289</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
         <v>289</v>
       </c>
@@ -8803,7 +8802,7 @@
       </c>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="A293" s="2" t="s">
         <v>289</v>
       </c>
@@ -8821,7 +8820,7 @@
       </c>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6">
       <c r="A294" s="2" t="s">
         <v>289</v>
       </c>
@@ -8839,7 +8838,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6">
       <c r="A295" s="2" t="s">
         <v>289</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="A296" s="2" t="s">
         <v>289</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
         <v>289</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6">
       <c r="A298" s="2" t="s">
         <v>289</v>
       </c>
@@ -8908,7 +8907,7 @@
       </c>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6">
       <c r="A299" s="2" t="s">
         <v>289</v>
       </c>
@@ -8926,7 +8925,7 @@
       </c>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6">
       <c r="A300" s="2" t="s">
         <v>289</v>
       </c>
@@ -8944,7 +8943,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6">
       <c r="A301" s="2" t="s">
         <v>289</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
         <v>289</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6">
       <c r="A303" s="2" t="s">
         <v>289</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
         <v>289</v>
       </c>
@@ -9013,7 +9012,7 @@
       </c>
       <c r="F304" s="6"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
         <v>289</v>
       </c>
@@ -9031,7 +9030,7 @@
       </c>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
         <v>289</v>
       </c>
@@ -9049,7 +9048,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
         <v>289</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
         <v>289</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
         <v>289</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
         <v>289</v>
       </c>
@@ -9118,7 +9117,7 @@
       </c>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
         <v>289</v>
       </c>
@@ -9136,7 +9135,7 @@
       </c>
       <c r="F311" s="6"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
         <v>289</v>
       </c>
@@ -9154,7 +9153,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
         <v>289</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
         <v>289</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
         <v>289</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
         <v>289</v>
       </c>
@@ -9223,7 +9222,7 @@
       </c>
       <c r="F316" s="6"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
         <v>289</v>
       </c>
@@ -9241,7 +9240,7 @@
       </c>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
         <v>289</v>
       </c>
@@ -9259,7 +9258,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
         <v>289</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
         <v>289</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
         <v>289</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6">
       <c r="A322" s="2" t="s">
         <v>289</v>
       </c>
@@ -9328,7 +9327,7 @@
       </c>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6">
       <c r="A323" s="2" t="s">
         <v>289</v>
       </c>
@@ -9346,7 +9345,7 @@
       </c>
       <c r="F323" s="6"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="A324" s="2" t="s">
         <v>289</v>
       </c>
@@ -9364,7 +9363,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
         <v>289</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
         <v>289</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
         <v>289</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
         <v>289</v>
       </c>
@@ -9433,7 +9432,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
         <v>289</v>
       </c>
@@ -9451,7 +9450,7 @@
       </c>
       <c r="F329" s="6"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
         <v>289</v>
       </c>
@@ -9469,7 +9468,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
         <v>289</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
         <v>289</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
         <v>289</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
         <v>289</v>
       </c>
@@ -9538,7 +9537,7 @@
       </c>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
         <v>289</v>
       </c>
@@ -9556,7 +9555,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6">
       <c r="A336" s="2" t="s">
         <v>289</v>
       </c>
@@ -9574,7 +9573,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6">
       <c r="A337" s="2" t="s">
         <v>289</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6">
       <c r="A338" s="2" t="s">
         <v>289</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6">
       <c r="A339" s="2" t="s">
         <v>289</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6">
       <c r="A340" s="2" t="s">
         <v>289</v>
       </c>
@@ -9643,7 +9642,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6">
       <c r="A341" s="2" t="s">
         <v>289</v>
       </c>
@@ -9661,7 +9660,7 @@
       </c>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6">
       <c r="A342" s="2" t="s">
         <v>289</v>
       </c>
@@ -9679,7 +9678,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6">
       <c r="A343" s="2" t="s">
         <v>289</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6">
       <c r="A344" s="2" t="s">
         <v>289</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6">
       <c r="A345" s="2" t="s">
         <v>289</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6">
       <c r="A346" s="2" t="s">
         <v>289</v>
       </c>
@@ -9748,7 +9747,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6">
       <c r="A347" s="2" t="s">
         <v>289</v>
       </c>
@@ -9766,7 +9765,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6">
       <c r="A348" s="2" t="s">
         <v>289</v>
       </c>
@@ -9784,7 +9783,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6">
       <c r="A349" s="2" t="s">
         <v>289</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6">
       <c r="A350" s="2" t="s">
         <v>289</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6">
       <c r="A351" s="2" t="s">
         <v>289</v>
       </c>
@@ -9835,7 +9834,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
         <v>289</v>
       </c>
@@ -9853,7 +9852,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
         <v>289</v>
       </c>
@@ -9871,7 +9870,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6">
       <c r="A354" s="2" t="s">
         <v>289</v>
       </c>
@@ -9889,7 +9888,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6">
       <c r="A355" s="2" t="s">
         <v>289</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6">
       <c r="A356" s="2" t="s">
         <v>289</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6">
       <c r="A357" s="2" t="s">
         <v>289</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6">
       <c r="A358" s="2" t="s">
         <v>289</v>
       </c>
@@ -9958,7 +9957,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6">
       <c r="A359" s="2" t="s">
         <v>289</v>
       </c>
@@ -9976,7 +9975,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6">
       <c r="A360" s="2" t="s">
         <v>289</v>
       </c>
@@ -9994,7 +9993,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6">
       <c r="A361" s="2" t="s">
         <v>289</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
         <v>289</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6">
       <c r="A363" s="2" t="s">
         <v>289</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6">
       <c r="A364" s="2" t="s">
         <v>289</v>
       </c>
@@ -10063,7 +10062,7 @@
       </c>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6">
       <c r="A365" s="2" t="s">
         <v>289</v>
       </c>
@@ -10081,7 +10080,7 @@
       </c>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6">
       <c r="A366" s="2" t="s">
         <v>289</v>
       </c>
@@ -10099,7 +10098,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6">
       <c r="A367" s="2" t="s">
         <v>289</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6">
       <c r="A368" s="2" t="s">
         <v>289</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6">
       <c r="A369" s="2" t="s">
         <v>289</v>
       </c>
@@ -10150,7 +10149,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6">
       <c r="A370" s="2" t="s">
         <v>289</v>
       </c>
@@ -10168,7 +10167,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6">
       <c r="A371" s="2" t="s">
         <v>289</v>
       </c>
@@ -10186,7 +10185,7 @@
       </c>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
         <v>289</v>
       </c>
@@ -10204,7 +10203,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6">
       <c r="A373" s="2" t="s">
         <v>289</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6">
       <c r="A374" s="2" t="s">
         <v>289</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6">
       <c r="A375" s="2" t="s">
         <v>289</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6">
       <c r="A376" s="2" t="s">
         <v>289</v>
       </c>
@@ -10273,7 +10272,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6">
       <c r="A377" s="2" t="s">
         <v>289</v>
       </c>
@@ -10291,7 +10290,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6">
       <c r="A378" s="2" t="s">
         <v>289</v>
       </c>
@@ -10309,7 +10308,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6">
       <c r="A379" s="2" t="s">
         <v>289</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6">
       <c r="A380" s="2" t="s">
         <v>289</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6">
       <c r="A381" s="2" t="s">
         <v>289</v>
       </c>
@@ -10360,7 +10359,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
         <v>289</v>
       </c>
@@ -10378,7 +10377,7 @@
       </c>
       <c r="F382" s="6"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6">
       <c r="A383" s="2" t="s">
         <v>289</v>
       </c>
@@ -10396,7 +10395,7 @@
       </c>
       <c r="F383" s="6"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6">
       <c r="A384" s="2" t="s">
         <v>289</v>
       </c>
@@ -10414,7 +10413,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6">
       <c r="A385" s="2" t="s">
         <v>289</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6">
       <c r="A386" s="2" t="s">
         <v>289</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6">
       <c r="A387" s="2" t="s">
         <v>289</v>
       </c>
@@ -10465,7 +10464,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6">
       <c r="A388" s="2" t="s">
         <v>289</v>
       </c>
@@ -10483,7 +10482,7 @@
       </c>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
         <v>289</v>
       </c>
@@ -10501,7 +10500,7 @@
       </c>
       <c r="F389" s="6"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
         <v>289</v>
       </c>
@@ -10519,7 +10518,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
         <v>289</v>
       </c>
@@ -10536,7 +10535,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
         <v>289</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
         <v>289</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6">
       <c r="A394" s="2" t="s">
         <v>289</v>
       </c>
@@ -10588,7 +10587,7 @@
       </c>
       <c r="F394" s="6"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
         <v>289</v>
       </c>
@@ -10606,7 +10605,7 @@
       </c>
       <c r="F395" s="6"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6">
       <c r="A396" s="2" t="s">
         <v>289</v>
       </c>
@@ -10624,7 +10623,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6">
       <c r="A397" s="2" t="s">
         <v>289</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6">
       <c r="A398" s="2" t="s">
         <v>289</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6">
       <c r="A399" s="2" t="s">
         <v>289</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
         <v>289</v>
       </c>
@@ -10693,7 +10692,7 @@
       </c>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6">
       <c r="A401" s="2" t="s">
         <v>289</v>
       </c>
@@ -10711,7 +10710,7 @@
       </c>
       <c r="F401" s="6"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
         <v>289</v>
       </c>
@@ -10729,7 +10728,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6">
       <c r="A403" s="2" t="s">
         <v>289</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6">
       <c r="A404" s="2" t="s">
         <v>289</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6">
       <c r="A405" s="2" t="s">
         <v>289</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6">
       <c r="A406" s="2" t="s">
         <v>289</v>
       </c>
@@ -10798,7 +10797,7 @@
       </c>
       <c r="F406" s="6"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6">
       <c r="A407" s="2" t="s">
         <v>289</v>
       </c>
@@ -10816,7 +10815,7 @@
       </c>
       <c r="F407" s="6"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6">
       <c r="A408" s="2" t="s">
         <v>289</v>
       </c>
@@ -10834,7 +10833,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6">
       <c r="A409" s="2" t="s">
         <v>289</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6">
       <c r="A410" s="2" t="s">
         <v>289</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6">
       <c r="A411" s="2" t="s">
         <v>289</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
         <v>289</v>
       </c>
@@ -10903,7 +10902,7 @@
       </c>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6">
       <c r="A413" s="2" t="s">
         <v>289</v>
       </c>
@@ -10921,7 +10920,7 @@
       </c>
       <c r="F413" s="6"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6">
       <c r="A414" s="2" t="s">
         <v>289</v>
       </c>
@@ -10939,7 +10938,7 @@
       </c>
       <c r="F414" s="6"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6">
       <c r="A415" s="2" t="s">
         <v>289</v>
       </c>
@@ -10957,7 +10956,7 @@
       </c>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6">
       <c r="A416" s="2" t="s">
         <v>289</v>
       </c>
@@ -10975,7 +10974,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6">
       <c r="A417" s="2" t="s">
         <v>289</v>
       </c>
@@ -10993,7 +10992,7 @@
       </c>
       <c r="F417" s="6"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6">
       <c r="A418" s="2" t="s">
         <v>289</v>
       </c>
@@ -11011,7 +11010,7 @@
       </c>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6">
       <c r="A419" s="2" t="s">
         <v>289</v>
       </c>
@@ -11029,7 +11028,7 @@
       </c>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6">
       <c r="A420" s="2" t="s">
         <v>289</v>
       </c>
@@ -11047,7 +11046,7 @@
       </c>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6">
       <c r="A421" s="2" t="s">
         <v>289</v>
       </c>
@@ -11065,7 +11064,7 @@
       </c>
       <c r="F421" s="6"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6">
       <c r="A422" s="2" t="s">
         <v>289</v>
       </c>
@@ -11083,7 +11082,7 @@
       </c>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6">
       <c r="A423" s="2" t="s">
         <v>289</v>
       </c>
@@ -11101,7 +11100,7 @@
       </c>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6">
       <c r="A424" s="2" t="s">
         <v>289</v>
       </c>
@@ -11119,7 +11118,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6">
       <c r="A425" s="2" t="s">
         <v>289</v>
       </c>
@@ -11137,7 +11136,7 @@
       </c>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6">
       <c r="A426" s="2" t="s">
         <v>289</v>
       </c>
@@ -11155,7 +11154,7 @@
       </c>
       <c r="F426" s="6"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6">
       <c r="A427" s="2" t="s">
         <v>289</v>
       </c>
@@ -11173,7 +11172,7 @@
       </c>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6">
       <c r="A428" s="2" t="s">
         <v>289</v>
       </c>
@@ -11191,7 +11190,7 @@
       </c>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6">
       <c r="A429" s="2" t="s">
         <v>289</v>
       </c>
@@ -11209,7 +11208,7 @@
       </c>
       <c r="F429" s="6"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6">
       <c r="A430" s="2" t="s">
         <v>289</v>
       </c>
@@ -11227,7 +11226,7 @@
       </c>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6">
       <c r="A431" s="2" t="s">
         <v>289</v>
       </c>
@@ -11245,7 +11244,7 @@
       </c>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6">
       <c r="A432" s="2" t="s">
         <v>289</v>
       </c>
@@ -11263,7 +11262,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6">
       <c r="A433" s="2" t="s">
         <v>289</v>
       </c>
@@ -11281,7 +11280,7 @@
       </c>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6">
       <c r="A434" s="2" t="s">
         <v>289</v>
       </c>
@@ -11299,7 +11298,7 @@
       </c>
       <c r="F434" s="6"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6">
       <c r="A435" s="2" t="s">
         <v>289</v>
       </c>
@@ -11317,7 +11316,7 @@
       </c>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6">
       <c r="A436" s="2" t="s">
         <v>289</v>
       </c>
@@ -11335,7 +11334,7 @@
       </c>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6">
       <c r="A437" s="2" t="s">
         <v>289</v>
       </c>
@@ -11353,7 +11352,7 @@
       </c>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6">
       <c r="A438" s="2" t="s">
         <v>289</v>
       </c>
@@ -11371,7 +11370,7 @@
       </c>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6">
       <c r="A439" s="2" t="s">
         <v>289</v>
       </c>
@@ -11389,7 +11388,7 @@
       </c>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6">
       <c r="A440" s="2" t="s">
         <v>289</v>
       </c>
@@ -11407,7 +11406,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6">
       <c r="A441" s="2" t="s">
         <v>289</v>
       </c>
@@ -11425,1808 +11424,1808 @@
       </c>
       <c r="F441" s="6"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6">
       <c r="A442" s="6"/>
       <c r="B442" s="8"/>
       <c r="E442" s="8"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6">
       <c r="A443" s="6"/>
       <c r="B443" s="8"/>
       <c r="E443" s="8"/>
       <c r="F443" s="6"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6">
       <c r="A444" s="6"/>
       <c r="B444" s="8"/>
       <c r="E444" s="8"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6">
       <c r="A445" s="6"/>
       <c r="B445" s="8"/>
       <c r="E445" s="8"/>
       <c r="F445" s="6"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6">
       <c r="A446" s="6"/>
       <c r="B446" s="8"/>
       <c r="E446" s="8"/>
       <c r="F446" s="6"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6">
       <c r="A447" s="6"/>
       <c r="B447" s="8"/>
       <c r="E447" s="8"/>
       <c r="F447" s="6"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6">
       <c r="A448" s="6"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
       <c r="E448" s="8"/>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6">
       <c r="A449" s="6"/>
       <c r="B449" s="8"/>
       <c r="E449" s="8"/>
       <c r="F449" s="6"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6">
       <c r="A450" s="6"/>
       <c r="B450" s="8"/>
       <c r="E450" s="8"/>
       <c r="F450" s="6"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6">
       <c r="A451" s="6"/>
       <c r="B451" s="8"/>
       <c r="E451" s="8"/>
       <c r="F451" s="6"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6">
       <c r="A452" s="6"/>
       <c r="B452" s="8"/>
       <c r="E452" s="8"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6">
       <c r="A453" s="6"/>
       <c r="B453" s="8"/>
       <c r="E453" s="8"/>
       <c r="F453" s="6"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6">
       <c r="A454" s="6"/>
       <c r="B454" s="8"/>
       <c r="E454" s="8"/>
       <c r="F454" s="6"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6">
       <c r="A455" s="6"/>
       <c r="B455" s="8"/>
       <c r="E455" s="8"/>
       <c r="F455" s="6"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6">
       <c r="A456" s="6"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
       <c r="E456" s="8"/>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6">
       <c r="A457" s="6"/>
       <c r="B457" s="8"/>
       <c r="E457" s="8"/>
       <c r="F457" s="6"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6">
       <c r="A458" s="6"/>
       <c r="B458" s="8"/>
       <c r="E458" s="8"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6">
       <c r="A459" s="6"/>
       <c r="B459" s="8"/>
       <c r="E459" s="8"/>
       <c r="F459" s="6"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6">
       <c r="A460" s="6"/>
       <c r="B460" s="8"/>
       <c r="E460" s="8"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6">
       <c r="A461" s="6"/>
       <c r="B461" s="8"/>
       <c r="E461" s="8"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6">
       <c r="A462" s="6"/>
       <c r="B462" s="8"/>
       <c r="E462" s="8"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6">
       <c r="A463" s="6"/>
       <c r="B463" s="8"/>
       <c r="E463" s="8"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6">
       <c r="A464" s="6"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
       <c r="E464" s="8"/>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6">
       <c r="A465" s="6"/>
       <c r="B465" s="8"/>
       <c r="E465" s="8"/>
       <c r="F465" s="6"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6">
       <c r="A466" s="6"/>
       <c r="B466" s="8"/>
       <c r="E466" s="8"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6">
       <c r="A467" s="6"/>
       <c r="B467" s="8"/>
       <c r="E467" s="8"/>
       <c r="F467" s="6"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6">
       <c r="A468" s="6"/>
       <c r="B468" s="8"/>
       <c r="E468" s="8"/>
       <c r="F468" s="6"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6">
       <c r="A469" s="6"/>
       <c r="B469" s="8"/>
       <c r="E469" s="8"/>
       <c r="F469" s="6"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6">
       <c r="A470" s="6"/>
       <c r="B470" s="8"/>
       <c r="E470" s="8"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="E471" s="8"/>
       <c r="F471" s="6"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6">
       <c r="A472" s="6"/>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
       <c r="E472" s="8"/>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6">
       <c r="A473" s="6"/>
       <c r="B473" s="8"/>
       <c r="E473" s="8"/>
       <c r="F473" s="6"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6">
       <c r="A474" s="6"/>
       <c r="B474" s="8"/>
       <c r="E474" s="8"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6">
       <c r="A475" s="6"/>
       <c r="B475" s="8"/>
       <c r="E475" s="8"/>
       <c r="F475" s="6"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6">
       <c r="A476" s="6"/>
       <c r="B476" s="8"/>
       <c r="E476" s="8"/>
       <c r="F476" s="6"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6">
       <c r="A477" s="6"/>
       <c r="B477" s="8"/>
       <c r="E477" s="8"/>
       <c r="F477" s="6"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6">
       <c r="A478" s="6"/>
       <c r="B478" s="8"/>
       <c r="E478" s="8"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6">
       <c r="A479" s="6"/>
       <c r="B479" s="8"/>
       <c r="E479" s="8"/>
       <c r="F479" s="6"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6">
       <c r="A480" s="6"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
       <c r="E480" s="8"/>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6">
       <c r="A481" s="6"/>
       <c r="B481" s="8"/>
       <c r="E481" s="8"/>
       <c r="F481" s="6"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6">
       <c r="A482" s="6"/>
       <c r="B482" s="8"/>
       <c r="E482" s="8"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6">
       <c r="A483" s="6"/>
       <c r="B483" s="8"/>
       <c r="E483" s="8"/>
       <c r="F483" s="6"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6">
       <c r="A484" s="6"/>
       <c r="B484" s="8"/>
       <c r="E484" s="8"/>
       <c r="F484" s="6"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6">
       <c r="A485" s="6"/>
       <c r="B485" s="8"/>
       <c r="E485" s="8"/>
       <c r="F485" s="6"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6">
       <c r="A486" s="6"/>
       <c r="B486" s="8"/>
       <c r="E486" s="8"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6">
       <c r="A487" s="6"/>
       <c r="B487" s="8"/>
       <c r="E487" s="8"/>
       <c r="F487" s="6"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6">
       <c r="A488" s="6"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
       <c r="E488" s="8"/>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6">
       <c r="A489" s="6"/>
       <c r="B489" s="8"/>
       <c r="E489" s="8"/>
       <c r="F489" s="6"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6">
       <c r="A490" s="6"/>
       <c r="B490" s="8"/>
       <c r="E490" s="8"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6">
       <c r="A491" s="6"/>
       <c r="B491" s="8"/>
       <c r="E491" s="8"/>
       <c r="F491" s="6"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6">
       <c r="A492" s="6"/>
       <c r="B492" s="8"/>
       <c r="E492" s="8"/>
       <c r="F492" s="6"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6">
       <c r="A493" s="6"/>
       <c r="B493" s="8"/>
       <c r="E493" s="8"/>
       <c r="F493" s="6"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6">
       <c r="A494" s="6"/>
       <c r="B494" s="8"/>
       <c r="E494" s="8"/>
       <c r="F494" s="6"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6">
       <c r="A495" s="6"/>
       <c r="B495" s="8"/>
       <c r="E495" s="8"/>
       <c r="F495" s="6"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6">
       <c r="A496" s="6"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
       <c r="E496" s="8"/>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6">
       <c r="A497" s="6"/>
       <c r="B497" s="8"/>
       <c r="E497" s="8"/>
       <c r="F497" s="6"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6">
       <c r="A498" s="6"/>
       <c r="B498" s="8"/>
       <c r="E498" s="8"/>
       <c r="F498" s="6"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6">
       <c r="A499" s="6"/>
       <c r="B499" s="8"/>
       <c r="E499" s="8"/>
       <c r="F499" s="6"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6">
       <c r="A500" s="6"/>
       <c r="B500" s="8"/>
       <c r="E500" s="8"/>
       <c r="F500" s="6"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6">
       <c r="A501" s="6"/>
       <c r="B501" s="8"/>
       <c r="E501" s="8"/>
       <c r="F501" s="6"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6">
       <c r="A502" s="6"/>
       <c r="B502" s="8"/>
       <c r="E502" s="8"/>
       <c r="F502" s="6"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6">
       <c r="A503" s="6"/>
       <c r="B503" s="8"/>
       <c r="E503" s="8"/>
       <c r="F503" s="6"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6">
       <c r="A504" s="6"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
       <c r="E504" s="8"/>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6">
       <c r="A505" s="6"/>
       <c r="B505" s="8"/>
       <c r="E505" s="8"/>
       <c r="F505" s="6"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6">
       <c r="A506" s="6"/>
       <c r="B506" s="8"/>
       <c r="E506" s="8"/>
       <c r="F506" s="6"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6">
       <c r="A507" s="6"/>
       <c r="B507" s="8"/>
       <c r="E507" s="8"/>
       <c r="F507" s="6"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6">
       <c r="A508" s="6"/>
       <c r="B508" s="8"/>
       <c r="E508" s="8"/>
       <c r="F508" s="6"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6">
       <c r="A509" s="6"/>
       <c r="B509" s="8"/>
       <c r="E509" s="8"/>
       <c r="F509" s="6"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6">
       <c r="A510" s="6"/>
       <c r="B510" s="8"/>
       <c r="E510" s="8"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6">
       <c r="A511" s="6"/>
       <c r="B511" s="8"/>
       <c r="E511" s="8"/>
       <c r="F511" s="6"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6">
       <c r="A512" s="6"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
       <c r="E512" s="8"/>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6">
       <c r="A513" s="6"/>
       <c r="B513" s="8"/>
       <c r="E513" s="8"/>
       <c r="F513" s="6"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6">
       <c r="A514" s="6"/>
       <c r="B514" s="8"/>
       <c r="E514" s="8"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6">
       <c r="A515" s="6"/>
       <c r="B515" s="8"/>
       <c r="E515" s="8"/>
       <c r="F515" s="6"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6">
       <c r="A516" s="6"/>
       <c r="B516" s="8"/>
       <c r="E516" s="8"/>
       <c r="F516" s="6"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6">
       <c r="A517" s="6"/>
       <c r="B517" s="8"/>
       <c r="E517" s="8"/>
       <c r="F517" s="6"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6">
       <c r="A518" s="6"/>
       <c r="B518" s="8"/>
       <c r="E518" s="8"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6">
       <c r="A519" s="6"/>
       <c r="B519" s="8"/>
       <c r="E519" s="8"/>
       <c r="F519" s="6"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6">
       <c r="A520" s="6"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
       <c r="E520" s="8"/>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6">
       <c r="A521" s="6"/>
       <c r="B521" s="8"/>
       <c r="E521" s="8"/>
       <c r="F521" s="6"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6">
       <c r="A522" s="6"/>
       <c r="B522" s="8"/>
       <c r="E522" s="8"/>
       <c r="F522" s="6"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6">
       <c r="A523" s="6"/>
       <c r="B523" s="8"/>
       <c r="E523" s="8"/>
       <c r="F523" s="6"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6">
       <c r="A524" s="6"/>
       <c r="F524" s="6"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6">
       <c r="A525" s="6"/>
       <c r="F525" s="6"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6">
       <c r="A526" s="6"/>
       <c r="F526" s="6"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6">
       <c r="A527" s="6"/>
       <c r="F527" s="6"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6">
       <c r="A528" s="6"/>
       <c r="C528" s="8"/>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6">
       <c r="A529" s="6"/>
       <c r="F529" s="6"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6">
       <c r="A530" s="6"/>
       <c r="F530" s="6"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6">
       <c r="A531" s="6"/>
       <c r="F531" s="6"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6">
       <c r="A532" s="6"/>
       <c r="F532" s="6"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6">
       <c r="A533" s="6"/>
       <c r="F533" s="6"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6">
       <c r="A534" s="6"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6">
       <c r="A535" s="6"/>
       <c r="F535" s="6"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6">
       <c r="A536" s="6"/>
       <c r="C536" s="8"/>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6">
       <c r="A537" s="6"/>
       <c r="F537" s="6"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6">
       <c r="A538" s="6"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6">
       <c r="A539" s="6"/>
       <c r="F539" s="6"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6">
       <c r="A540" s="6"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6">
       <c r="A541" s="6"/>
       <c r="F541" s="6"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6">
       <c r="A542" s="6"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6">
       <c r="A543" s="6"/>
       <c r="F543" s="6"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6">
       <c r="A544" s="6"/>
       <c r="C544" s="8"/>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6">
       <c r="A545" s="6"/>
       <c r="F545" s="6"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6">
       <c r="A546" s="6"/>
       <c r="F546" s="6"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6">
       <c r="A547" s="6"/>
       <c r="F547" s="6"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6">
       <c r="A548" s="6"/>
       <c r="F548" s="6"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6">
       <c r="A549" s="6"/>
       <c r="F549" s="6"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6">
       <c r="A550" s="6"/>
       <c r="F550" s="6"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6">
       <c r="A551" s="6"/>
       <c r="F551" s="6"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6">
       <c r="A552" s="6"/>
       <c r="C552" s="8"/>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6">
       <c r="A553" s="6"/>
       <c r="F553" s="6"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6">
       <c r="A554" s="6"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6">
       <c r="A555" s="6"/>
       <c r="F555" s="6"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6">
       <c r="A556" s="6"/>
       <c r="F556" s="6"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6">
       <c r="A557" s="6"/>
       <c r="F557" s="6"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6">
       <c r="A558" s="6"/>
       <c r="F558" s="6"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6">
       <c r="A559" s="6"/>
       <c r="F559" s="6"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6">
       <c r="A560" s="6"/>
       <c r="C560" s="8"/>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6">
       <c r="A561" s="6"/>
       <c r="F561" s="6"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6">
       <c r="A562" s="6"/>
       <c r="F562" s="6"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6">
       <c r="A563" s="6"/>
       <c r="F563" s="6"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6">
       <c r="A564" s="6"/>
       <c r="F564" s="6"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6">
       <c r="A565" s="6"/>
       <c r="F565" s="6"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6">
       <c r="A566" s="6"/>
       <c r="F566" s="6"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6">
       <c r="A567" s="6"/>
       <c r="F567" s="6"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6">
       <c r="A568" s="6"/>
       <c r="C568" s="8"/>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6">
       <c r="A569" s="6"/>
       <c r="F569" s="6"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6">
       <c r="A570" s="6"/>
       <c r="F570" s="6"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6">
       <c r="A571" s="6"/>
       <c r="F571" s="6"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6">
       <c r="A572" s="6"/>
       <c r="F572" s="6"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6">
       <c r="A573" s="6"/>
       <c r="F573" s="6"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6">
       <c r="A574" s="6"/>
       <c r="F574" s="6"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6">
       <c r="A575" s="6"/>
       <c r="F575" s="6"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6">
       <c r="A576" s="6"/>
       <c r="C576" s="8"/>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6">
       <c r="A577" s="6"/>
       <c r="F577" s="6"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6">
       <c r="A578" s="6"/>
       <c r="F578" s="6"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6">
       <c r="A579" s="6"/>
       <c r="F579" s="6"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6">
       <c r="A580" s="6"/>
       <c r="F580" s="6"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6">
       <c r="A581" s="6"/>
       <c r="F581" s="6"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6">
       <c r="A582" s="6"/>
       <c r="F582" s="6"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6">
       <c r="A583" s="6"/>
       <c r="F583" s="6"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6">
       <c r="A584" s="6"/>
       <c r="C584" s="8"/>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6">
       <c r="A585" s="6"/>
       <c r="F585" s="6"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6">
       <c r="A586" s="6"/>
       <c r="F586" s="6"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6">
       <c r="A587" s="6"/>
       <c r="F587" s="6"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6">
       <c r="A588" s="6"/>
       <c r="F588" s="6"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6">
       <c r="A589" s="6"/>
       <c r="F589" s="6"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6">
       <c r="A590" s="6"/>
       <c r="F590" s="6"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6">
       <c r="A591" s="6"/>
       <c r="F591" s="6"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6">
       <c r="A592" s="6"/>
       <c r="C592" s="8"/>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6">
       <c r="A593" s="6"/>
       <c r="F593" s="6"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6">
       <c r="A594" s="6"/>
       <c r="F594" s="6"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6">
       <c r="A595" s="6"/>
       <c r="F595" s="6"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6">
       <c r="A596" s="6"/>
       <c r="F596" s="6"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6">
       <c r="A597" s="6"/>
       <c r="F597" s="6"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6">
       <c r="A598" s="6"/>
       <c r="F598" s="6"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6">
       <c r="A599" s="6"/>
       <c r="F599" s="6"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6">
       <c r="A600" s="6"/>
       <c r="C600" s="8"/>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6">
       <c r="A601" s="6"/>
       <c r="F601" s="6"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6">
       <c r="A602" s="6"/>
       <c r="F602" s="6"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6">
       <c r="A603" s="6"/>
       <c r="F603" s="6"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6">
       <c r="A604" s="6"/>
       <c r="F604" s="6"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6">
       <c r="A605" s="6"/>
       <c r="F605" s="6"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6">
       <c r="A606" s="6"/>
       <c r="F606" s="6"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6">
       <c r="A607" s="6"/>
       <c r="F607" s="6"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6">
       <c r="A608" s="6"/>
       <c r="C608" s="8"/>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6">
       <c r="A609" s="6"/>
       <c r="F609" s="6"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6">
       <c r="A610" s="6"/>
       <c r="F610" s="6"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6">
       <c r="A611" s="6"/>
       <c r="F611" s="6"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6">
       <c r="A612" s="6"/>
       <c r="F612" s="6"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6">
       <c r="A613" s="6"/>
       <c r="F613" s="6"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6">
       <c r="A614" s="6"/>
       <c r="F614" s="6"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6">
       <c r="A615" s="6"/>
       <c r="F615" s="6"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6">
       <c r="A616" s="6"/>
       <c r="C616" s="8"/>
       <c r="F616" s="7"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6">
       <c r="A617" s="6"/>
       <c r="F617" s="6"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6">
       <c r="A618" s="6"/>
       <c r="F618" s="6"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6">
       <c r="A619" s="6"/>
       <c r="F619" s="6"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6">
       <c r="A620" s="6"/>
       <c r="F620" s="6"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6">
       <c r="A621" s="6"/>
       <c r="F621" s="6"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6">
       <c r="A622" s="6"/>
       <c r="F622" s="6"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6">
       <c r="A623" s="6"/>
       <c r="F623" s="6"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6">
       <c r="A624" s="6"/>
       <c r="C624" s="8"/>
       <c r="F624" s="7"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6">
       <c r="A625" s="6"/>
       <c r="F625" s="6"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6">
       <c r="A626" s="6"/>
       <c r="F626" s="6"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6">
       <c r="A627" s="6"/>
       <c r="F627" s="6"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6">
       <c r="A628" s="6"/>
       <c r="F628" s="6"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6">
       <c r="A629" s="6"/>
       <c r="F629" s="6"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6">
       <c r="A630" s="6"/>
       <c r="F630" s="6"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6">
       <c r="A631" s="6"/>
       <c r="F631" s="6"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6">
       <c r="A632" s="6"/>
       <c r="C632" s="8"/>
       <c r="F632" s="7"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6">
       <c r="A633" s="6"/>
       <c r="F633" s="6"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6">
       <c r="A634" s="6"/>
       <c r="F634" s="6"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6">
       <c r="A635" s="6"/>
       <c r="F635" s="6"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6">
       <c r="A636" s="6"/>
       <c r="F636" s="6"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6">
       <c r="A637" s="6"/>
       <c r="F637" s="6"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6">
       <c r="A638" s="6"/>
       <c r="F638" s="6"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6">
       <c r="A639" s="6"/>
       <c r="F639" s="6"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6">
       <c r="A640" s="6"/>
       <c r="C640" s="8"/>
       <c r="F640" s="7"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6">
       <c r="A641" s="6"/>
       <c r="F641" s="6"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6">
       <c r="A642" s="6"/>
       <c r="F642" s="6"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6">
       <c r="A643" s="6"/>
       <c r="F643" s="6"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6">
       <c r="A644" s="6"/>
       <c r="F644" s="6"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6">
       <c r="A645" s="6"/>
       <c r="F645" s="6"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6">
       <c r="A646" s="6"/>
       <c r="F646" s="6"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6">
       <c r="A647" s="6"/>
       <c r="F647" s="6"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6">
       <c r="A648" s="6"/>
       <c r="C648" s="8"/>
       <c r="F648" s="7"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6">
       <c r="A649" s="6"/>
       <c r="F649" s="6"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6">
       <c r="A650" s="6"/>
       <c r="F650" s="6"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6">
       <c r="A651" s="6"/>
       <c r="F651" s="6"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6">
       <c r="A652" s="6"/>
       <c r="F652" s="6"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6">
       <c r="A653" s="6"/>
       <c r="F653" s="6"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6">
       <c r="A654" s="6"/>
       <c r="F654" s="6"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6">
       <c r="A655" s="6"/>
       <c r="F655" s="6"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6">
       <c r="A656" s="6"/>
       <c r="C656" s="8"/>
       <c r="F656" s="7"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6">
       <c r="A657" s="6"/>
       <c r="F657" s="6"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6">
       <c r="A658" s="6"/>
       <c r="F658" s="6"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6">
       <c r="A659" s="6"/>
       <c r="F659" s="6"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6">
       <c r="A660" s="6"/>
       <c r="F660" s="6"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6">
       <c r="A661" s="6"/>
       <c r="F661" s="6"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6">
       <c r="A662" s="6"/>
       <c r="F662" s="6"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6">
       <c r="A663" s="6"/>
       <c r="F663" s="6"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6">
       <c r="A664" s="6"/>
       <c r="C664" s="8"/>
       <c r="F664" s="7"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6">
       <c r="A665" s="6"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6">
       <c r="A666" s="6"/>
       <c r="F666" s="6"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6">
       <c r="A667" s="6"/>
       <c r="F667" s="6"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6">
       <c r="A668" s="6"/>
       <c r="F668" s="6"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6">
       <c r="A669" s="6"/>
       <c r="F669" s="6"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6">
       <c r="A670" s="6"/>
       <c r="F670" s="6"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6">
       <c r="A671" s="6"/>
       <c r="F671" s="6"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6">
       <c r="A672" s="6"/>
       <c r="C672" s="8"/>
       <c r="F672" s="7"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6">
       <c r="A673" s="6"/>
       <c r="F673" s="6"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6">
       <c r="A674" s="6"/>
       <c r="F674" s="6"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6">
       <c r="A675" s="6"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6">
       <c r="A676" s="6"/>
       <c r="F676" s="6"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6">
       <c r="A677" s="6"/>
       <c r="F677" s="6"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6">
       <c r="A678" s="6"/>
       <c r="F678" s="6"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6">
       <c r="A679" s="6"/>
       <c r="F679" s="6"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6">
       <c r="A680" s="6"/>
       <c r="C680" s="8"/>
       <c r="F680" s="7"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6">
       <c r="A681" s="6"/>
       <c r="F681" s="6"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6">
       <c r="A682" s="6"/>
       <c r="F682" s="6"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6">
       <c r="A683" s="6"/>
       <c r="F683" s="6"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6">
       <c r="A684" s="6"/>
       <c r="F684" s="6"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6">
       <c r="A685" s="6"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6">
       <c r="A686" s="6"/>
       <c r="F686" s="6"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6">
       <c r="A687" s="6"/>
       <c r="F687" s="6"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6">
       <c r="A688" s="6"/>
       <c r="C688" s="8"/>
       <c r="F688" s="7"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6">
       <c r="A689" s="6"/>
       <c r="F689" s="6"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6">
       <c r="A690" s="6"/>
       <c r="F690" s="6"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6">
       <c r="A691" s="6"/>
       <c r="F691" s="6"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6">
       <c r="A692" s="6"/>
       <c r="F692" s="6"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6">
       <c r="A693" s="6"/>
       <c r="F693" s="6"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6">
       <c r="A694" s="6"/>
       <c r="F694" s="6"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6">
       <c r="A695" s="6"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6">
       <c r="A696" s="6"/>
       <c r="C696" s="8"/>
       <c r="F696" s="7"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6">
       <c r="A697" s="6"/>
       <c r="F697" s="6"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6">
       <c r="A698" s="6"/>
       <c r="F698" s="6"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6">
       <c r="A699" s="6"/>
       <c r="F699" s="6"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6">
       <c r="A700" s="6"/>
       <c r="F700" s="6"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6">
       <c r="A701" s="6"/>
       <c r="F701" s="6"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6">
       <c r="A702" s="6"/>
       <c r="F702" s="6"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6">
       <c r="A703" s="6"/>
       <c r="F703" s="6"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6">
       <c r="A704" s="6"/>
       <c r="C704" s="8"/>
       <c r="F704" s="7"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6">
       <c r="A705" s="6"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6">
       <c r="A706" s="6"/>
       <c r="F706" s="6"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6">
       <c r="A707" s="6"/>
       <c r="F707" s="6"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6">
       <c r="A708" s="6"/>
       <c r="F708" s="6"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6">
       <c r="A709" s="6"/>
       <c r="F709" s="6"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6">
       <c r="A710" s="6"/>
       <c r="F710" s="6"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6">
       <c r="A711" s="6"/>
       <c r="F711" s="6"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6">
       <c r="A712" s="6"/>
       <c r="C712" s="8"/>
       <c r="F712" s="7"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6">
       <c r="A713" s="6"/>
       <c r="F713" s="6"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6">
       <c r="A714" s="6"/>
       <c r="F714" s="6"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6">
       <c r="A715" s="6"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6">
       <c r="A716" s="6"/>
       <c r="F716" s="6"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6">
       <c r="A717" s="6"/>
       <c r="F717" s="6"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6">
       <c r="A718" s="6"/>
       <c r="F718" s="6"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6">
       <c r="A719" s="6"/>
       <c r="F719" s="6"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6">
       <c r="A720" s="6"/>
       <c r="C720" s="8"/>
       <c r="F720" s="7"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6">
       <c r="A721" s="6"/>
       <c r="F721" s="6"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6">
       <c r="A722" s="6"/>
       <c r="F722" s="6"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6">
       <c r="A723" s="6"/>
       <c r="F723" s="6"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6">
       <c r="A724" s="6"/>
       <c r="F724" s="6"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6">
       <c r="A725" s="6"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6">
       <c r="A726" s="6"/>
       <c r="F726" s="6"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6">
       <c r="A727" s="6"/>
       <c r="F727" s="6"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6">
       <c r="A728" s="6"/>
       <c r="C728" s="8"/>
       <c r="F728" s="7"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6">
       <c r="A729" s="6"/>
       <c r="F729" s="6"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6">
       <c r="A730" s="6"/>
       <c r="F730" s="6"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6">
       <c r="A731" s="6"/>
       <c r="F731" s="6"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6">
       <c r="A732" s="6"/>
       <c r="F732" s="6"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6">
       <c r="A733" s="6"/>
       <c r="F733" s="6"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6">
       <c r="A734" s="6"/>
       <c r="F734" s="6"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6">
       <c r="A735" s="6"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6">
       <c r="A736" s="6"/>
       <c r="C736" s="8"/>
       <c r="F736" s="7"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6">
       <c r="A737" s="6"/>
       <c r="F737" s="6"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6">
       <c r="A738" s="6"/>
       <c r="F738" s="6"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6">
       <c r="A739" s="6"/>
       <c r="F739" s="6"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6">
       <c r="A740" s="6"/>
       <c r="F740" s="6"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6">
       <c r="A741" s="6"/>
       <c r="F741" s="6"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6">
       <c r="A742" s="6"/>
       <c r="F742" s="6"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6">
       <c r="A743" s="6"/>
       <c r="F743" s="6"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6">
       <c r="A744" s="6"/>
       <c r="C744" s="8"/>
       <c r="F744" s="7"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6">
       <c r="A745" s="6"/>
       <c r="F745" s="6"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6">
       <c r="A746" s="6"/>
       <c r="F746" s="6"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6">
       <c r="A747" s="6"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6">
       <c r="A748" s="6"/>
       <c r="F748" s="6"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6">
       <c r="A749" s="6"/>
       <c r="F749" s="6"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6">
       <c r="A750" s="6"/>
       <c r="F750" s="6"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6">
       <c r="A751" s="6"/>
       <c r="F751" s="6"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6">
       <c r="A752" s="6"/>
       <c r="C752" s="8"/>
       <c r="F752" s="7"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6">
       <c r="A753" s="6"/>
       <c r="F753" s="6"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6">
       <c r="A754" s="6"/>
       <c r="F754" s="6"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6">
       <c r="A755" s="6"/>
       <c r="F755" s="6"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6">
       <c r="A756" s="6"/>
       <c r="F756" s="6"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6">
       <c r="A757" s="6"/>
       <c r="F757" s="6"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6">
       <c r="A758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6">
       <c r="A759" s="6"/>
       <c r="F759" s="6"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6">
       <c r="A760" s="6"/>
       <c r="C760" s="8"/>
       <c r="F760" s="7"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6">
       <c r="A761" s="6"/>
       <c r="F761" s="6"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6">
       <c r="A762" s="6"/>
       <c r="F762" s="6"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6">
       <c r="A763" s="6"/>
       <c r="F763" s="6"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6">
       <c r="A764" s="6"/>
       <c r="F764" s="6"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6">
       <c r="A765" s="6"/>
       <c r="F765" s="6"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6">
       <c r="A766" s="6"/>
       <c r="F766" s="6"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6">
       <c r="A767" s="6"/>
       <c r="F767" s="6"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6">
       <c r="A768" s="6"/>
       <c r="C768" s="8"/>
       <c r="F768" s="7"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6">
       <c r="A769" s="6"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6">
       <c r="A770" s="6"/>
       <c r="F770" s="6"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6">
       <c r="A771" s="6"/>
       <c r="F771" s="6"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6">
       <c r="A772" s="6"/>
       <c r="F772" s="6"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6">
       <c r="A773" s="6"/>
       <c r="F773" s="6"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6">
       <c r="A774" s="6"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6">
       <c r="A775" s="6"/>
       <c r="F775" s="6"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6">
       <c r="A776" s="6"/>
       <c r="C776" s="8"/>
       <c r="F776" s="7"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6">
       <c r="A777" s="6"/>
       <c r="F777" s="6"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6">
       <c r="A778" s="6"/>
       <c r="F778" s="6"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6">
       <c r="A779" s="6"/>
       <c r="F779" s="6"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6">
       <c r="A780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6">
       <c r="A781" s="6"/>
       <c r="F781" s="6"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6">
       <c r="A782" s="6"/>
       <c r="F782" s="6"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6">
       <c r="A783" s="6"/>
       <c r="F783" s="6"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6">
       <c r="A784" s="6"/>
       <c r="C784" s="8"/>
       <c r="F784" s="7"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6">
       <c r="A785" s="6"/>
       <c r="F785" s="6"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6">
       <c r="A786" s="6"/>
       <c r="F786" s="6"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6">
       <c r="A787" s="6"/>
       <c r="F787" s="6"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6">
       <c r="A788" s="6"/>
       <c r="F788" s="6"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6">
       <c r="A789" s="6"/>
       <c r="F789" s="6"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6">
       <c r="A790" s="6"/>
       <c r="F790" s="6"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6">
       <c r="A791" s="6"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6">
       <c r="A792" s="6"/>
       <c r="C792" s="8"/>
       <c r="F792" s="7"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6">
       <c r="A793" s="6"/>
       <c r="F793" s="6"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6">
       <c r="A794" s="6"/>
       <c r="F794" s="6"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6">
       <c r="A795" s="6"/>
       <c r="F795" s="6"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6">
       <c r="A796" s="6"/>
       <c r="F796" s="6"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6">
       <c r="A797" s="6"/>
       <c r="F797" s="6"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6">
       <c r="A798" s="6"/>
       <c r="F798" s="6"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6">
       <c r="A799" s="6"/>
       <c r="F799" s="6"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:6">
       <c r="A800" s="6"/>
       <c r="C800" s="8"/>
       <c r="F800" s="7"/>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6">
       <c r="A801" s="6"/>
       <c r="F801" s="6"/>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6">
       <c r="A802" s="6"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6">
       <c r="A803" s="6"/>
       <c r="F803" s="6"/>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6">
       <c r="A804" s="6"/>
       <c r="F804" s="6"/>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6">
       <c r="A805" s="6"/>
       <c r="F805" s="6"/>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6">
       <c r="A806" s="6"/>
       <c r="F806" s="6"/>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6">
       <c r="A807" s="6"/>
       <c r="F807" s="6"/>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6">
       <c r="A808" s="6"/>
       <c r="C808" s="8"/>
       <c r="F808" s="7"/>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6">
       <c r="A809" s="6"/>
       <c r="F809" s="6"/>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6">
       <c r="A810" s="6"/>
       <c r="F810" s="6"/>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6">
       <c r="A811" s="6"/>
       <c r="F811" s="6"/>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6">
       <c r="A812" s="6"/>
       <c r="F812" s="6"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6">
       <c r="A813" s="6"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6">
       <c r="A814" s="6"/>
       <c r="F814" s="6"/>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6">
       <c r="A815" s="6"/>
       <c r="F815" s="6"/>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6">
       <c r="A816" s="6"/>
       <c r="C816" s="8"/>
       <c r="F816" s="7"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6">
       <c r="A817" s="6"/>
       <c r="F817" s="6"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6">
       <c r="A818" s="6"/>
       <c r="F818" s="6"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6">
       <c r="A819" s="6"/>
       <c r="F819" s="6"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6">
       <c r="A820" s="6"/>
       <c r="F820" s="6"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6">
       <c r="A821" s="6"/>
       <c r="F821" s="6"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6">
       <c r="A822" s="6"/>
       <c r="F822" s="6"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6">
       <c r="A823" s="6"/>
       <c r="F823" s="6"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6">
       <c r="A824" s="6"/>
       <c r="C824" s="8"/>
       <c r="F824" s="7"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6">
       <c r="A825" s="6"/>
       <c r="F825" s="6"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6">
       <c r="A826" s="6"/>
       <c r="F826" s="6"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6">
       <c r="A827" s="6"/>
       <c r="F827" s="6"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6">
       <c r="A828" s="6"/>
       <c r="F828" s="6"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6">
       <c r="A829" s="6"/>
       <c r="F829" s="6"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6">
       <c r="A830" s="6"/>
       <c r="F830" s="6"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6">
       <c r="A831" s="6"/>
       <c r="F831" s="6"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6">
       <c r="A832" s="6"/>
       <c r="C832" s="8"/>
       <c r="F832" s="7"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6">
       <c r="A833" s="6"/>
       <c r="F833" s="6"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6">
       <c r="A834" s="6"/>
       <c r="F834" s="6"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6">
       <c r="A835" s="6"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6">
       <c r="A836" s="6"/>
       <c r="F836" s="6"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6">
       <c r="A837" s="6"/>
       <c r="F837" s="6"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6">
       <c r="A838" s="6"/>
       <c r="F838" s="6"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6">
       <c r="A839" s="6"/>
       <c r="F839" s="6"/>
     </row>
@@ -13238,7 +13237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13246,7 +13245,7 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
@@ -13255,7 +13254,7 @@
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -13272,92 +13271,92 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:6">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -13365,7 +13364,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -13373,7 +13372,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -13381,7 +13380,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -13389,7 +13388,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -13397,7 +13396,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -13405,7 +13404,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -13413,7 +13412,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -13421,7 +13420,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -13429,7 +13428,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -13437,7 +13436,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -13445,7 +13444,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -13453,7 +13452,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -13461,7 +13460,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -13469,7 +13468,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -13477,7 +13476,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -13485,7 +13484,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -13493,7 +13492,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -13501,7 +13500,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -13509,7 +13508,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -13517,7 +13516,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -13525,7 +13524,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -13533,7 +13532,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -13541,7 +13540,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -13549,7 +13548,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -13557,7 +13556,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -13565,7 +13564,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -13573,7 +13572,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -13581,7 +13580,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -13589,7 +13588,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -13597,7 +13596,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -13605,7 +13604,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -13613,7 +13612,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -13621,7 +13620,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -13629,7 +13628,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -13637,7 +13636,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -13645,7 +13644,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -13653,7 +13652,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -13661,7 +13660,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -13677,7 +13676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13685,7 +13684,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -13693,7 +13692,7 @@
     <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
